--- a/biology/Médecine/Assistant_hospitalier_universitaire/Assistant_hospitalier_universitaire.xlsx
+++ b/biology/Médecine/Assistant_hospitalier_universitaire/Assistant_hospitalier_universitaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Assistant hospitalier universitaire (AHU) est un titre français de praticien non titulaire hospitalo-universitaire (bi-appartenance hospitalière et universitaire).
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'activité d'assistant hospitalier universitaire est inscrite dans une logique conjointe d'activités hospitalières et universitaires[1]. Ses missions sont dédiées aux actes odontologiques (chirurgien-dentiste), aux actes pharmaceutiques (pharmacien), biologiques (médecin/pharmacien) et anatomopathologiques (médecins) exclusivement en CHU (établissements publics de santé).
-Les AHU assurent des fonctions d'enseignement pour la formation initiale et continue, des fonctions de recherche clinique et/ou fondamentale et des fonctions hospitalières comme la formation des internes. Les dispositions statutaires des AHU ont d'abord été définies par le décret no 84-135 du 24 février 1984, modifié par deux décrets no 2006-593 et no 2008-306[2],[3]. Ils le sont désormais par le décret no 2021-1645 du 13 décembre 2021[4]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'activité d'assistant hospitalier universitaire est inscrite dans une logique conjointe d'activités hospitalières et universitaires. Ses missions sont dédiées aux actes odontologiques (chirurgien-dentiste), aux actes pharmaceutiques (pharmacien), biologiques (médecin/pharmacien) et anatomopathologiques (médecins) exclusivement en CHU (établissements publics de santé).
+Les AHU assurent des fonctions d'enseignement pour la formation initiale et continue, des fonctions de recherche clinique et/ou fondamentale et des fonctions hospitalières comme la formation des internes. Les dispositions statutaires des AHU ont d'abord été définies par le décret no 84-135 du 24 février 1984, modifié par deux décrets no 2006-593 et no 2008-306,. Ils le sont désormais par le décret no 2021-1645 du 13 décembre 2021. 
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Les assistants hospitaliers universitaires des disciplines pharmaceutiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Leur statut a été créé en 2006 lors de l'intégration des disciplines pharmaceutiques dans les centres hospitaliers universitaires. Cette intégration a permis aux pharmaciens l'exercice des fonctions conjointes d’enseignant et de praticien hospitalier en suivant un parcours et des titres alignés sur ceux des médecins hospitalo-universitaires[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leur statut a été créé en 2006 lors de l'intégration des disciplines pharmaceutiques dans les centres hospitaliers universitaires. Cette intégration a permis aux pharmaciens l'exercice des fonctions conjointes d’enseignant et de praticien hospitalier en suivant un parcours et des titres alignés sur ceux des médecins hospitalo-universitaires.
 L'exercice effectif des fonctions d'AHU (deux années) est un prérequis d'accès aux carrières hospitalo-universitaires des disciplines pharmaceutiques. À présent, les étudiants en pharmacie candidats à une carrière de maître de conférences des universités-praticien hospitalier (MCU-PH) ou de professeur des universités-praticien hospitalier (PU-PH) doivent soit:
 -s’orienter vers l’internat (4 ans) où ils valideront un Master 2 afin d’accéder à un poste d’assistant hospitalier universitaire où ils pourront préparer une thèse d’Université en alternance avec leur formation de praticien hospitalier
 -soit être titulaires d’un Doctorat d’Université (3-4 ans) considéré comme équivalent à l’internat (tel que défini aux articles 26-2 et 26-3 du décret 84.135 du 24 février 1984 modifié) pour accéder à cette fonction.
